--- a/Code/Results/Cases/Case_2_204/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_204/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.587829985007033</v>
+        <v>1.398568986727525</v>
       </c>
       <c r="C2">
-        <v>1.459529984259973</v>
+        <v>0.5171075274697046</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3070508341093401</v>
+        <v>0.3547033692641435</v>
       </c>
       <c r="F2">
-        <v>3.261900085815427</v>
+        <v>2.977178440315242</v>
       </c>
       <c r="G2">
-        <v>0.0007768363184158135</v>
+        <v>0.002461624983171225</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.8830766739474498</v>
+        <v>0.9046580690395984</v>
       </c>
       <c r="J2">
-        <v>0.1315131720209379</v>
+        <v>0.107995940606024</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.09183383422311</v>
+        <v>1.268004636215551</v>
       </c>
       <c r="C3">
-        <v>1.25356243480536</v>
+        <v>0.4642713929725346</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2697875490055708</v>
+        <v>0.3467698538069115</v>
       </c>
       <c r="F3">
-        <v>2.900305831949396</v>
+        <v>2.91404952845383</v>
       </c>
       <c r="G3">
-        <v>0.0007870558239962615</v>
+        <v>0.00246755635454048</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8150468341324171</v>
+        <v>0.8979360573306536</v>
       </c>
       <c r="J3">
-        <v>0.1178229065446672</v>
+        <v>0.1058271365809915</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.792209808785515</v>
+        <v>1.188422438366274</v>
       </c>
       <c r="C4">
-        <v>1.12976708337186</v>
+        <v>0.432069932038587</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2471487015958971</v>
+        <v>0.3420335978011551</v>
       </c>
       <c r="F4">
-        <v>2.686861037988706</v>
+        <v>2.877371502464911</v>
       </c>
       <c r="G4">
-        <v>0.0007934587513346515</v>
+        <v>0.002471383033241681</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.7768233055502591</v>
+        <v>0.8945875903904721</v>
       </c>
       <c r="J4">
-        <v>0.1099219162513947</v>
+        <v>0.104592500564948</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.671147004281238</v>
+        <v>1.156137510933775</v>
       </c>
       <c r="C5">
-        <v>1.079885569561668</v>
+        <v>0.4190064928529296</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2379751998453941</v>
+        <v>0.3401376875154511</v>
       </c>
       <c r="F5">
-        <v>2.601786466400213</v>
+        <v>2.862944630518726</v>
       </c>
       <c r="G5">
-        <v>0.0007961030397831349</v>
+        <v>0.002472989077493309</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.7620452661394665</v>
+        <v>0.8934167697456203</v>
       </c>
       <c r="J5">
-        <v>0.106814414186637</v>
+        <v>0.1041134536657466</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.651101744841299</v>
+        <v>1.15078536379724</v>
       </c>
       <c r="C6">
-        <v>1.071634107797081</v>
+        <v>0.4168408348741082</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2364548551833963</v>
+        <v>0.3398249422997424</v>
       </c>
       <c r="F6">
-        <v>2.587768163788709</v>
+        <v>2.860580328437848</v>
       </c>
       <c r="G6">
-        <v>0.0007965443159974961</v>
+        <v>0.002473258581911753</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.7596370437628437</v>
+        <v>0.893233992569499</v>
       </c>
       <c r="J6">
-        <v>0.1063047912036836</v>
+        <v>0.1040353532124669</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.790573167015907</v>
+        <v>1.187986445624233</v>
       </c>
       <c r="C7">
-        <v>1.129092202669142</v>
+        <v>0.4318935172944407</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2470247846065732</v>
+        <v>0.3420078903160899</v>
       </c>
       <c r="F7">
-        <v>2.685706288309717</v>
+        <v>2.877174837748981</v>
       </c>
       <c r="G7">
-        <v>0.0007934942677586454</v>
+        <v>0.002471404503802148</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.7766208880775949</v>
+        <v>0.8945710188115186</v>
       </c>
       <c r="J7">
-        <v>0.1098795714077383</v>
+        <v>0.1045859429024389</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.415661669998599</v>
+        <v>1.353427990115165</v>
       </c>
       <c r="C8">
-        <v>1.387891294642657</v>
+        <v>0.4988388803745352</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2941469631531888</v>
+        <v>0.3519400082488033</v>
       </c>
       <c r="F8">
-        <v>3.135283417011181</v>
+        <v>2.954976643169573</v>
       </c>
       <c r="G8">
-        <v>0.0007803352106412957</v>
+        <v>0.002463631871180019</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.8588243688593877</v>
+        <v>0.9021773655677237</v>
       </c>
       <c r="J8">
-        <v>0.1266785994008899</v>
+        <v>0.1072278076415714</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.690865339179254</v>
+        <v>1.682591510334873</v>
       </c>
       <c r="C9">
-        <v>1.922019794149151</v>
+        <v>0.6320978303098741</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.388912408047446</v>
+        <v>0.3724797608345156</v>
       </c>
       <c r="F9">
-        <v>4.097809803459569</v>
+        <v>3.124276727150772</v>
       </c>
       <c r="G9">
-        <v>0.0007554017439697224</v>
+        <v>0.002449848048574187</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.052968396313631</v>
+        <v>0.9233720000476211</v>
       </c>
       <c r="J9">
-        <v>0.1643873264711644</v>
+        <v>0.1131930654867475</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.674772203098769</v>
+        <v>1.927471560462607</v>
       </c>
       <c r="C10">
-        <v>2.339563316727265</v>
+        <v>0.7313233076166057</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4607055031047409</v>
+        <v>0.3882100812619882</v>
       </c>
       <c r="F10">
-        <v>4.875147080738458</v>
+        <v>3.259156747345628</v>
       </c>
       <c r="G10">
-        <v>0.0007373796808143257</v>
+        <v>0.002440598879672973</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.22346404973645</v>
+        <v>0.9429103136522059</v>
       </c>
       <c r="J10">
-        <v>0.1962352687788069</v>
+        <v>0.1180750616056159</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.13720228798428</v>
+        <v>2.039571894909216</v>
       </c>
       <c r="C11">
-        <v>2.537411752122352</v>
+        <v>0.7767758463343171</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4940357369042445</v>
+        <v>0.3955036636707447</v>
       </c>
       <c r="F11">
-        <v>5.249693602021381</v>
+        <v>3.322861818913822</v>
       </c>
       <c r="G11">
-        <v>0.0007291816571228135</v>
+        <v>0.002436579395862191</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.309199412624906</v>
+        <v>0.9526904138445218</v>
       </c>
       <c r="J11">
-        <v>0.2119637802840657</v>
+        <v>0.120409038123654</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.314916371051709</v>
+        <v>2.082125076825207</v>
       </c>
       <c r="C12">
-        <v>2.613718441440312</v>
+        <v>0.7940346708107882</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.5067735001077338</v>
+        <v>0.3982852130646322</v>
       </c>
       <c r="F12">
-        <v>5.395111799974501</v>
+        <v>3.347327939425583</v>
       </c>
       <c r="G12">
-        <v>0.0007260708716605503</v>
+        <v>0.00243508417237108</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.343057597606517</v>
+        <v>0.9565245980063395</v>
       </c>
       <c r="J12">
-        <v>0.2181330937209083</v>
+        <v>0.1213094915271142</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.276518384617759</v>
+        <v>2.072955862604999</v>
       </c>
       <c r="C13">
-        <v>2.597218327650069</v>
+        <v>0.7903155587887909</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5040246682803655</v>
+        <v>0.3976852865291676</v>
       </c>
       <c r="F13">
-        <v>5.363623622831483</v>
+        <v>3.342043416924582</v>
       </c>
       <c r="G13">
-        <v>0.0007267412330420929</v>
+        <v>0.002435405003122365</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.335699842292456</v>
+        <v>0.9556929877016103</v>
       </c>
       <c r="J13">
-        <v>0.2167943102385976</v>
+        <v>0.1211148175225816</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.151767807199121</v>
+        <v>2.04307068977738</v>
       </c>
       <c r="C14">
-        <v>2.543660183244299</v>
+        <v>0.7781947895288113</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.4950812231180066</v>
+        <v>0.3957321110679644</v>
       </c>
       <c r="F14">
-        <v>5.261581713770454</v>
+        <v>3.324867771395532</v>
       </c>
       <c r="G14">
-        <v>0.0007289258994767737</v>
+        <v>0.002436455845233661</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.311955664941607</v>
+        <v>0.953003221789686</v>
       </c>
       <c r="J14">
-        <v>0.2124668360203543</v>
+        <v>0.1204827836640874</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.075708623700564</v>
+        <v>2.024778664533812</v>
       </c>
       <c r="C15">
-        <v>2.511042924031813</v>
+        <v>0.7707766326204819</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4896189007307825</v>
+        <v>0.3945382855049502</v>
       </c>
       <c r="F15">
-        <v>5.199563901512732</v>
+        <v>3.314391926757139</v>
       </c>
       <c r="G15">
-        <v>0.0007302630308555491</v>
+        <v>0.002437103010395085</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.29760005649149</v>
+        <v>0.9513727515092683</v>
       </c>
       <c r="J15">
-        <v>0.2098450529951066</v>
+        <v>0.1200978207411296</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.644888096671139</v>
+        <v>1.920159867262839</v>
       </c>
       <c r="C16">
-        <v>2.326812796869206</v>
+        <v>0.7283593501009591</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4585424172934296</v>
+        <v>0.3877361850316845</v>
       </c>
       <c r="F16">
-        <v>4.851137696422086</v>
+        <v>3.25504111934822</v>
       </c>
       <c r="G16">
-        <v>0.000737914924217025</v>
+        <v>0.002440865331407009</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.218043186151291</v>
+        <v>0.9422893156440892</v>
       </c>
       <c r="J16">
-        <v>0.1952351751513604</v>
+        <v>0.1179248378486335</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.384703054932402</v>
+        <v>1.856161190288447</v>
       </c>
       <c r="C17">
-        <v>2.215981748117485</v>
+        <v>0.702419456336429</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4396629743974074</v>
+        <v>0.3835984717503749</v>
       </c>
       <c r="F17">
-        <v>4.643129232491646</v>
+        <v>3.2192359780679</v>
       </c>
       <c r="G17">
-        <v>0.0007426049700347125</v>
+        <v>0.002443221427600049</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.171473853390168</v>
+        <v>0.9369470922606951</v>
       </c>
       <c r="J17">
-        <v>0.1866131193861733</v>
+        <v>0.116621013202959</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.236416517658427</v>
+        <v>1.819416898427505</v>
       </c>
       <c r="C18">
-        <v>2.152961494290651</v>
+        <v>0.687528999863332</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.42886582769151</v>
+        <v>0.3812315476286301</v>
       </c>
       <c r="F18">
-        <v>4.525418644203</v>
+        <v>3.198862470050727</v>
       </c>
       <c r="G18">
-        <v>0.0007453030325742485</v>
+        <v>0.002444594298309102</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.145442977418412</v>
+        <v>0.9339582034305636</v>
       </c>
       <c r="J18">
-        <v>0.1817683005683648</v>
+        <v>0.1158817145825992</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.186430773616166</v>
+        <v>1.8069871948843</v>
       </c>
       <c r="C19">
-        <v>2.13174188804129</v>
+        <v>0.6824923591163952</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.425220165226655</v>
+        <v>0.3804323827236402</v>
       </c>
       <c r="F19">
-        <v>4.485879480273837</v>
+        <v>3.192002103302286</v>
       </c>
       <c r="G19">
-        <v>0.0007462168088860867</v>
+        <v>0.002445062174937847</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.136752990143563</v>
+        <v>0.9329605398064018</v>
       </c>
       <c r="J19">
-        <v>0.1801466089122528</v>
+        <v>0.1156332150686552</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.412255801970787</v>
+        <v>1.8629671073802</v>
       </c>
       <c r="C20">
-        <v>2.22770301803655</v>
+        <v>0.7051777384013462</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4416661934461033</v>
+        <v>0.384037596466321</v>
       </c>
       <c r="F20">
-        <v>4.665068453545132</v>
+        <v>3.223024624042438</v>
       </c>
       <c r="G20">
-        <v>0.0007421057005827385</v>
+        <v>0.002442968785875757</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.176351698071556</v>
+        <v>0.9375070890208406</v>
       </c>
       <c r="J20">
-        <v>0.1875188838909878</v>
+        <v>0.1167587051379257</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.188335314567269</v>
+        <v>2.051845870938394</v>
       </c>
       <c r="C21">
-        <v>2.559351681854537</v>
+        <v>0.7817536655107915</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.497704797512327</v>
+        <v>0.396305274780012</v>
       </c>
       <c r="F21">
-        <v>5.291451476162393</v>
+        <v>3.32990334354264</v>
       </c>
       <c r="G21">
-        <v>0.0007282844398688742</v>
+        <v>0.002436146459551585</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.318890202017514</v>
+        <v>0.9537897055910634</v>
       </c>
       <c r="J21">
-        <v>0.2137318214630852</v>
+        <v>0.120667973193612</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.710996225363147</v>
+        <v>2.175891737515485</v>
       </c>
       <c r="C22">
-        <v>2.784332236342209</v>
+        <v>0.8320748618179437</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.5350191577763184</v>
+        <v>0.4044372388480681</v>
       </c>
       <c r="F22">
-        <v>5.722076114264723</v>
+        <v>3.401752785236852</v>
       </c>
       <c r="G22">
-        <v>0.0007192104325863935</v>
+        <v>0.002431844204607406</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.420292547744538</v>
+        <v>0.9651941248313847</v>
       </c>
       <c r="J22">
-        <v>0.2321278404927938</v>
+        <v>0.123319990995796</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.43045106301804</v>
+        <v>2.109630260370182</v>
       </c>
       <c r="C23">
-        <v>2.663407864980115</v>
+        <v>0.8051918030161005</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5150331648658124</v>
+        <v>0.400086654594574</v>
       </c>
       <c r="F23">
-        <v>5.490080696497955</v>
+        <v>3.363220952018906</v>
       </c>
       <c r="G23">
-        <v>0.0007240595923858266</v>
+        <v>0.002434126131926822</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.365335352197576</v>
+        <v>0.9590367779189819</v>
       </c>
       <c r="J23">
-        <v>0.2221805280325242</v>
+        <v>0.121895556275021</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.399795198281083</v>
+        <v>1.859889998550102</v>
       </c>
       <c r="C24">
-        <v>2.222401675942592</v>
+        <v>0.7039306483992505</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4407603623385654</v>
+        <v>0.3838390310949933</v>
       </c>
       <c r="F24">
-        <v>4.655143929658323</v>
+        <v>3.221311119270155</v>
       </c>
       <c r="G24">
-        <v>0.0007423314146271311</v>
+        <v>0.002443082948214055</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.174144127721931</v>
+        <v>0.9372536579267035</v>
       </c>
       <c r="J24">
-        <v>0.1871090410800775</v>
+        <v>0.1166964225977551</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.339007110970385</v>
+        <v>1.59302130984554</v>
       </c>
       <c r="C25">
-        <v>1.773837642135163</v>
+        <v>0.5958242594562648</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3629543115666678</v>
+        <v>0.366810300149055</v>
       </c>
       <c r="F25">
-        <v>3.826791660137303</v>
+        <v>3.076655086009396</v>
       </c>
       <c r="G25">
-        <v>0.0007620758053106404</v>
+        <v>0.002453421977461913</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.9961873284921836</v>
+        <v>0.916951813180745</v>
       </c>
       <c r="J25">
-        <v>0.1535594860533962</v>
+        <v>0.1114931501703254</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_204/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_204/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.398568986727525</v>
+        <v>3.58782998500709</v>
       </c>
       <c r="C2">
-        <v>0.5171075274697046</v>
+        <v>1.459529984260485</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3547033692641435</v>
+        <v>0.3070508341093259</v>
       </c>
       <c r="F2">
-        <v>2.977178440315242</v>
+        <v>3.261900085815427</v>
       </c>
       <c r="G2">
-        <v>0.002461624983171225</v>
+        <v>0.0007768363182964138</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9046580690395984</v>
+        <v>0.8830766739474498</v>
       </c>
       <c r="J2">
-        <v>0.107995940606024</v>
+        <v>0.1315131720208953</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.268004636215551</v>
+        <v>3.091833834223166</v>
       </c>
       <c r="C3">
-        <v>0.4642713929725346</v>
+        <v>1.253562434805417</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3467698538069115</v>
+        <v>0.2697875490055495</v>
       </c>
       <c r="F3">
-        <v>2.91404952845383</v>
+        <v>2.900305831949368</v>
       </c>
       <c r="G3">
-        <v>0.00246755635454048</v>
+        <v>0.0007870558240426961</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8979360573306536</v>
+        <v>0.8150468341324384</v>
       </c>
       <c r="J3">
-        <v>0.1058271365809915</v>
+        <v>0.1178229065447169</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.188422438366274</v>
+        <v>2.792209808785685</v>
       </c>
       <c r="C4">
-        <v>0.432069932038587</v>
+        <v>1.129767083371803</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3420335978011551</v>
+        <v>0.2471487015959042</v>
       </c>
       <c r="F4">
-        <v>2.877371502464911</v>
+        <v>2.686861037988734</v>
       </c>
       <c r="G4">
-        <v>0.002471383033241681</v>
+        <v>0.0007934587513368881</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.8945875903904721</v>
+        <v>0.7768233055502662</v>
       </c>
       <c r="J4">
-        <v>0.104592500564948</v>
+        <v>0.1099219162512455</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.156137510933775</v>
+        <v>2.671147004281352</v>
       </c>
       <c r="C5">
-        <v>0.4190064928529296</v>
+        <v>1.079885569561725</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3401376875154511</v>
+        <v>0.237975199845387</v>
       </c>
       <c r="F5">
-        <v>2.862944630518726</v>
+        <v>2.601786466400213</v>
       </c>
       <c r="G5">
-        <v>0.002472989077493309</v>
+        <v>0.0007961030398862451</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.8934167697456203</v>
+        <v>0.7620452661394665</v>
       </c>
       <c r="J5">
-        <v>0.1041134536657466</v>
+        <v>0.1068144141865233</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.15078536379724</v>
+        <v>2.651101744841242</v>
       </c>
       <c r="C6">
-        <v>0.4168408348741082</v>
+        <v>1.071634107796967</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3398249422997424</v>
+        <v>0.2364548551834034</v>
       </c>
       <c r="F6">
-        <v>2.860580328437848</v>
+        <v>2.587768163788709</v>
       </c>
       <c r="G6">
-        <v>0.002473258581911753</v>
+        <v>0.0007965443159979026</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.893233992569499</v>
+        <v>0.7596370437628437</v>
       </c>
       <c r="J6">
-        <v>0.1040353532124669</v>
+        <v>0.1063047912036694</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.187986445624233</v>
+        <v>2.790573167016021</v>
       </c>
       <c r="C7">
-        <v>0.4318935172944407</v>
+        <v>1.129092202669085</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3420078903160899</v>
+        <v>0.2470247846065448</v>
       </c>
       <c r="F7">
-        <v>2.877174837748981</v>
+        <v>2.685706288309689</v>
       </c>
       <c r="G7">
-        <v>0.002471404503802148</v>
+        <v>0.0007934942676798284</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.8945710188115186</v>
+        <v>0.7766208880776162</v>
       </c>
       <c r="J7">
-        <v>0.1045859429024389</v>
+        <v>0.1098795714077099</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.353427990115165</v>
+        <v>3.415661669998656</v>
       </c>
       <c r="C8">
-        <v>0.4988388803745352</v>
+        <v>1.387891294642884</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3519400082488033</v>
+        <v>0.294146963153203</v>
       </c>
       <c r="F8">
-        <v>2.954976643169573</v>
+        <v>3.135283417011209</v>
       </c>
       <c r="G8">
-        <v>0.002463631871180019</v>
+        <v>0.000780335210581406</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9021773655677237</v>
+        <v>0.8588243688593877</v>
       </c>
       <c r="J8">
-        <v>0.1072278076415714</v>
+        <v>0.1266785994009183</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.682591510334873</v>
+        <v>4.690865339179368</v>
       </c>
       <c r="C9">
-        <v>0.6320978303098741</v>
+        <v>1.922019794149151</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3724797608345156</v>
+        <v>0.3889124080474176</v>
       </c>
       <c r="F9">
-        <v>3.124276727150772</v>
+        <v>4.097809803459512</v>
       </c>
       <c r="G9">
-        <v>0.002449848048574187</v>
+        <v>0.0007554017438575221</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.9233720000476211</v>
+        <v>1.052968396313645</v>
       </c>
       <c r="J9">
-        <v>0.1131930654867475</v>
+        <v>0.1643873264711289</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.927471560462607</v>
+        <v>5.674772203098769</v>
       </c>
       <c r="C10">
-        <v>0.7313233076166057</v>
+        <v>2.339563316727265</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3882100812619882</v>
+        <v>0.4607055031047409</v>
       </c>
       <c r="F10">
-        <v>3.259156747345628</v>
+        <v>4.875147080738486</v>
       </c>
       <c r="G10">
-        <v>0.002440598879672973</v>
+        <v>0.0007373796808072264</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.9429103136522059</v>
+        <v>1.223464049736492</v>
       </c>
       <c r="J10">
-        <v>0.1180750616056159</v>
+        <v>0.1962352687788425</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.039571894909216</v>
+        <v>6.13720228798411</v>
       </c>
       <c r="C11">
-        <v>0.7767758463343171</v>
+        <v>2.537411752122068</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3955036636707447</v>
+        <v>0.4940357369042445</v>
       </c>
       <c r="F11">
-        <v>3.322861818913822</v>
+        <v>5.249693602021352</v>
       </c>
       <c r="G11">
-        <v>0.002436579395862191</v>
+        <v>0.0007291816570602627</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.9526904138445218</v>
+        <v>1.30919941262492</v>
       </c>
       <c r="J11">
-        <v>0.120409038123654</v>
+        <v>0.2119637802839662</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.082125076825207</v>
+        <v>6.314916371051822</v>
       </c>
       <c r="C12">
-        <v>0.7940346708107882</v>
+        <v>2.613718441440369</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3982852130646322</v>
+        <v>0.5067735001077196</v>
       </c>
       <c r="F12">
-        <v>3.347327939425583</v>
+        <v>5.395111799974558</v>
       </c>
       <c r="G12">
-        <v>0.00243508417237108</v>
+        <v>0.0007260708716605446</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.9565245980063395</v>
+        <v>1.343057597606503</v>
       </c>
       <c r="J12">
-        <v>0.1213094915271142</v>
+        <v>0.2181330937209651</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.072955862604999</v>
+        <v>6.27651838461793</v>
       </c>
       <c r="C13">
-        <v>0.7903155587887909</v>
+        <v>2.597218327649614</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3976852865291676</v>
+        <v>0.5040246682803797</v>
       </c>
       <c r="F13">
-        <v>3.342043416924582</v>
+        <v>5.363623622831483</v>
       </c>
       <c r="G13">
-        <v>0.002435405003122365</v>
+        <v>0.0007267412330888308</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9556929877016103</v>
+        <v>1.33569984229247</v>
       </c>
       <c r="J13">
-        <v>0.1211148175225816</v>
+        <v>0.2167943102386403</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.04307068977738</v>
+        <v>6.151767807199064</v>
       </c>
       <c r="C14">
-        <v>0.7781947895288113</v>
+        <v>2.543660183244299</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3957321110679644</v>
+        <v>0.4950812231180421</v>
       </c>
       <c r="F14">
-        <v>3.324867771395532</v>
+        <v>5.261581713770425</v>
       </c>
       <c r="G14">
-        <v>0.002436455845233661</v>
+        <v>0.000728925899542654</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.953003221789686</v>
+        <v>1.311955664941578</v>
       </c>
       <c r="J14">
-        <v>0.1204827836640874</v>
+        <v>0.2124668360204538</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.024778664533812</v>
+        <v>6.075708623700336</v>
       </c>
       <c r="C15">
-        <v>0.7707766326204819</v>
+        <v>2.511042924031926</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3945382855049502</v>
+        <v>0.4896189007307115</v>
       </c>
       <c r="F15">
-        <v>3.314391926757139</v>
+        <v>5.199563901512676</v>
       </c>
       <c r="G15">
-        <v>0.002437103010395085</v>
+        <v>0.0007302630308699584</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.9513727515092683</v>
+        <v>1.297600056491447</v>
       </c>
       <c r="J15">
-        <v>0.1200978207411296</v>
+        <v>0.2098450529951208</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.920159867262839</v>
+        <v>5.644888096671195</v>
       </c>
       <c r="C16">
-        <v>0.7283593501009591</v>
+        <v>2.326812796869206</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3877361850316845</v>
+        <v>0.4585424172934367</v>
       </c>
       <c r="F16">
-        <v>3.25504111934822</v>
+        <v>4.851137696422057</v>
       </c>
       <c r="G16">
-        <v>0.002440865331407009</v>
+        <v>0.0007379149241646399</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.9422893156440892</v>
+        <v>1.218043186151291</v>
       </c>
       <c r="J16">
-        <v>0.1179248378486335</v>
+        <v>0.1952351751514172</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.856161190288447</v>
+        <v>5.384703054932515</v>
       </c>
       <c r="C17">
-        <v>0.702419456336429</v>
+        <v>2.21598174811794</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.3835984717503749</v>
+        <v>0.4396629743974074</v>
       </c>
       <c r="F17">
-        <v>3.2192359780679</v>
+        <v>4.643129232491674</v>
       </c>
       <c r="G17">
-        <v>0.002443221427600049</v>
+        <v>0.0007426049700290567</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.9369470922606951</v>
+        <v>1.171473853390154</v>
       </c>
       <c r="J17">
-        <v>0.116621013202959</v>
+        <v>0.1866131193859957</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.819416898427505</v>
+        <v>5.236416517658427</v>
       </c>
       <c r="C18">
-        <v>0.687528999863332</v>
+        <v>2.152961494290821</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3812315476286301</v>
+        <v>0.4288658276915527</v>
       </c>
       <c r="F18">
-        <v>3.198862470050727</v>
+        <v>4.525418644203057</v>
       </c>
       <c r="G18">
-        <v>0.002444594298309102</v>
+        <v>0.0007453030325722253</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.9339582034305636</v>
+        <v>1.145442977418412</v>
       </c>
       <c r="J18">
-        <v>0.1158817145825992</v>
+        <v>0.1817683005685495</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.8069871948843</v>
+        <v>5.186430773616337</v>
       </c>
       <c r="C19">
-        <v>0.6824923591163952</v>
+        <v>2.13174188804112</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3804323827236402</v>
+        <v>0.4252201652267047</v>
       </c>
       <c r="F19">
-        <v>3.192002103302286</v>
+        <v>4.485879480273866</v>
       </c>
       <c r="G19">
-        <v>0.002445062174937847</v>
+        <v>0.0007462168088796517</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.9329605398064018</v>
+        <v>1.136752990143563</v>
       </c>
       <c r="J19">
-        <v>0.1156332150686552</v>
+        <v>0.1801466089121959</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.8629671073802</v>
+        <v>5.41225580197073</v>
       </c>
       <c r="C20">
-        <v>0.7051777384013462</v>
+        <v>2.227703018036379</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.384037596466321</v>
+        <v>0.4416661934460961</v>
       </c>
       <c r="F20">
-        <v>3.223024624042438</v>
+        <v>4.665068453545189</v>
       </c>
       <c r="G20">
-        <v>0.002442968785875757</v>
+        <v>0.0007421057006409545</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.9375070890208406</v>
+        <v>1.176351698071571</v>
       </c>
       <c r="J20">
-        <v>0.1167587051379257</v>
+        <v>0.1875188838907889</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.051845870938394</v>
+        <v>6.188335314567439</v>
       </c>
       <c r="C21">
-        <v>0.7817536655107915</v>
+        <v>2.559351681854821</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.396305274780012</v>
+        <v>0.4977047975123909</v>
       </c>
       <c r="F21">
-        <v>3.32990334354264</v>
+        <v>5.291451476162422</v>
       </c>
       <c r="G21">
-        <v>0.002436146459551585</v>
+        <v>0.0007282844397542246</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.9537897055910634</v>
+        <v>1.318890202017542</v>
       </c>
       <c r="J21">
-        <v>0.120667973193612</v>
+        <v>0.2137318214630852</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.175891737515485</v>
+        <v>6.710996225362976</v>
       </c>
       <c r="C22">
-        <v>0.8320748618179437</v>
+        <v>2.784332236342209</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4044372388480681</v>
+        <v>0.5350191577763113</v>
       </c>
       <c r="F22">
-        <v>3.401752785236852</v>
+        <v>5.722076114264723</v>
       </c>
       <c r="G22">
-        <v>0.002431844204607406</v>
+        <v>0.0007192104325857088</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.9651941248313847</v>
+        <v>1.420292547744523</v>
       </c>
       <c r="J22">
-        <v>0.123319990995796</v>
+        <v>0.2321278404926943</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.109630260370182</v>
+        <v>6.430451063017927</v>
       </c>
       <c r="C23">
-        <v>0.8051918030161005</v>
+        <v>2.663407864980286</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.400086654594574</v>
+        <v>0.5150331648657982</v>
       </c>
       <c r="F23">
-        <v>3.363220952018906</v>
+        <v>5.490080696497955</v>
       </c>
       <c r="G23">
-        <v>0.002434126131926822</v>
+        <v>0.0007240595925049886</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.9590367779189819</v>
+        <v>1.36533535219759</v>
       </c>
       <c r="J23">
-        <v>0.121895556275021</v>
+        <v>0.2221805280325242</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.859889998550102</v>
+        <v>5.39979519828114</v>
       </c>
       <c r="C24">
-        <v>0.7039306483992505</v>
+        <v>2.222401675942479</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3838390310949933</v>
+        <v>0.440760362338608</v>
       </c>
       <c r="F24">
-        <v>3.221311119270155</v>
+        <v>4.655143929658379</v>
       </c>
       <c r="G24">
-        <v>0.002443082948214055</v>
+        <v>0.0007423314146282988</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.9372536579267035</v>
+        <v>1.174144127721902</v>
       </c>
       <c r="J24">
-        <v>0.1166964225977551</v>
+        <v>0.1871090410800633</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.59302130984554</v>
+        <v>4.339007110970158</v>
       </c>
       <c r="C25">
-        <v>0.5958242594562648</v>
+        <v>1.773837642134993</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.366810300149055</v>
+        <v>0.3629543115665825</v>
       </c>
       <c r="F25">
-        <v>3.076655086009396</v>
+        <v>3.826791660137275</v>
       </c>
       <c r="G25">
-        <v>0.002453421977461913</v>
+        <v>0.0007620758053086622</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.916951813180745</v>
+        <v>0.996187328492212</v>
       </c>
       <c r="J25">
-        <v>0.1114931501703254</v>
+        <v>0.1535594860534104</v>
       </c>
       <c r="K25">
         <v>0</v>
